--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>bd-rate</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>intra</t>
+  </si>
+  <si>
+    <t>lowdelay</t>
   </si>
   <si>
     <t>randomaccess</t>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1155,12 +1158,378 @@
         <v>0</v>
       </c>
     </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1">
+        <v>7</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1">
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1">
+        <v>10</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1">
+        <v>11</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1">
+        <v>12</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1">
+        <v>13</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1">
+        <v>14</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1">
+        <v>17</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1">
+        <v>18</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1">
+        <v>19</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1">
+        <v>20</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1">
+        <v>21</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1">
+        <v>22</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1">
+        <v>23</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1">
+        <v>24</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1">
+        <v>25</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1">
+        <v>26</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1">
+        <v>27</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1">
+        <v>28</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1">
+        <v>29</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1">
+        <v>30</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1">
+        <v>31</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A67"/>
-    <mergeCell ref="B2:B67"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A100"/>
+    <mergeCell ref="B2:B100"/>
     <mergeCell ref="C2:C34"/>
     <mergeCell ref="C35:C67"/>
+    <mergeCell ref="C68:C100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
